--- a/practicum6/diatomeeen.xlsx
+++ b/practicum6/diatomeeen.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggbilcke\Dropbox\dropboxStats1819\class6_nonPar\case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hveetvel\Documents\GitHub\statistiekBasisCursusData\practicum6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>species</t>
+    <t>strain</t>
   </si>
 </sst>
 </file>
@@ -190,13 +190,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -204,8 +204,8 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="normálne 2" xfId="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -242,9 +242,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +282,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -354,7 +354,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>

--- a/practicum6/diatomeeen.xlsx
+++ b/practicum6/diatomeeen.xlsx
@@ -531,8 +531,8 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2407,8 +2407,8 @@
       <c r="C110" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="12">
-        <v>0</v>
+      <c r="D110">
+        <v>7.0952536310000003</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>4</v>
